--- a/Data Management/SPEC/SDTM/TS.xlsx
+++ b/Data Management/SPEC/SDTM/TS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbmen\Desktop\Practice Studies\OP1092\SDTM Specs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Edify\OP1092\Data Management\SPEC\SDTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFB54E5-B8B9-4488-AD65-C0DE419D6953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CDD21F-F6E1-463C-BED1-C9C576869F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="298">
   <si>
     <t>Dataset</t>
   </si>
@@ -599,12 +599,6 @@
     <t xml:space="preserve">Trial Intent Type </t>
   </si>
   <si>
-    <t>TREATMENT</t>
-  </si>
-  <si>
-    <t>C49656</t>
-  </si>
-  <si>
     <t>TITLE</t>
   </si>
   <si>
@@ -617,9 +611,6 @@
     <t xml:space="preserve">Trial Phase Classification </t>
   </si>
   <si>
-    <t>Phase I Trial</t>
-  </si>
-  <si>
     <t>C15600</t>
   </si>
   <si>
@@ -704,9 +695,6 @@
     <t>PubMed ID for Citation Used in Study</t>
   </si>
   <si>
-    <t>SDTM IG Version;SDTM Implementation Guide Version</t>
-  </si>
-  <si>
     <t>Single Site EU State Trial Indicator</t>
   </si>
   <si>
@@ -728,9 +716,6 @@
     <t>Actual Number of Subjects</t>
   </si>
   <si>
-    <t xml:space="preserve">CG Continuous Monitoring </t>
-  </si>
-  <si>
     <t>OBJEXP</t>
   </si>
   <si>
@@ -752,9 +737,6 @@
     <t>JP-2266</t>
   </si>
   <si>
-    <t>DATABASE LOCK</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 5 mg, 10mg, 20mg, 40mg, 80mg</t>
   </si>
   <si>
@@ -773,12 +755,6 @@
     <t>Diabetes mellitus</t>
   </si>
   <si>
-    <t>C82637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CROSS-OVER </t>
-  </si>
-  <si>
     <t>JP-2266-101-FIH / OP109219.JEI</t>
   </si>
   <si>
@@ -791,127 +767,161 @@
     <t>To evaluate the pharmacokinetics and pharmacodynamics parameters of JP-2266 after single oral administration at 5 different doses in healthy male Caucasian subjects.</t>
   </si>
   <si>
-    <t>To evaluate the safety and tolerability of JP-2266 after single oral administration at 5 different doses in healthy male Caucasian subjects.To evaluate the impact of food intake on pharmacokinetics after an oral administration of JP-2266 in healthy male Caucasian subjects in fast or fed conditions.</t>
-  </si>
-  <si>
-    <t>To evaluate the safety and tolerability of JP-2266 after single oral administration in fast or fed conditions in healthy male Caucasian subjects.
-- To evaluate the impact of food on pharmacodynamics after an oral administration of JP-2266 in healthy male Caucasian subjects in fast or fed conditions.</t>
-  </si>
-  <si>
-    <t>Subjects will be healthy male Caucasian volunteers aged between 18 and 50 years.</t>
-  </si>
-  <si>
     <t>Obs Study Population Description</t>
   </si>
   <si>
-    <t>To determine factors that may affect the safety, pharmacokinetics, and pharmacodynamics, an exploratory analysis of drug metabolites can be performed using samples collected for the pharmacokinetic evaluation of investigational products.</t>
-  </si>
-  <si>
-    <t>Genotyping analysis could be performed to assess the correlation between genetic polymorphism and pharmacokinetic parameters.</t>
-  </si>
-  <si>
-    <t>Assessment of systemic tolerability and safety: Adverse Events</t>
-  </si>
-  <si>
     <t>Vital signs</t>
   </si>
   <si>
     <t xml:space="preserve">Physical examination </t>
   </si>
   <si>
-    <t>Biological analysis:
-Blood : Hematology, Coagulation, Biochemistry
+    <t>Cmin</t>
+  </si>
+  <si>
+    <t>AUClast</t>
+  </si>
+  <si>
+    <t>AUCinf</t>
+  </si>
+  <si>
+    <t>kel</t>
+  </si>
+  <si>
+    <t>Vd/F</t>
+  </si>
+  <si>
+    <t>Ae0-24h</t>
+  </si>
+  <si>
+    <t>Aelast</t>
+  </si>
+  <si>
+    <t>fe%</t>
+  </si>
+  <si>
+    <t>OUTMSSEC</t>
+  </si>
+  <si>
+    <t>Secondary Outcome Measure</t>
+  </si>
+  <si>
+    <t>Emax</t>
+  </si>
+  <si>
+    <t>AUEC</t>
+  </si>
+  <si>
+    <t>Ae</t>
+  </si>
+  <si>
+    <t>DOUBLE BLIND</t>
+  </si>
+  <si>
+    <t>JEIL Pharmaceutical Co., Ltd. 343, Sapyeong-daero, Seocho-gu, Seoul, Republic of Korea</t>
+  </si>
+  <si>
+    <t>A Dose-randomized, Double-blind, Placebo-controlled, Single- and Multiple-dose, Dose-escalation, Phase I Clinical Trial to Investigate the Safety, Tolerability, and Pharmacokinetic and Pharmacodynamic Characteristics of JP-2266 after Oral Administration in Healthy Male Caucasian Subjects</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>Investigational Therapy or Treatment</t>
+  </si>
+  <si>
+    <t>PHARMACODYNAMIC</t>
+  </si>
+  <si>
+    <t>C49662</t>
+  </si>
+  <si>
+    <t>PCLAS</t>
+  </si>
+  <si>
+    <t>Pharmacologic Class</t>
+  </si>
+  <si>
+    <t>Value : OP109219-JP-2266-101-FIH_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OP109219-JP-2266-101-FIH_A</t>
+  </si>
+  <si>
+    <t>NAV</t>
+  </si>
+  <si>
+    <t>C2985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARALLEL </t>
+  </si>
+  <si>
+    <t>C82639</t>
+  </si>
+  <si>
+    <t>REGID</t>
+  </si>
+  <si>
+    <t>Registry Identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCT05172622 </t>
+  </si>
+  <si>
+    <t>EUDARC</t>
+  </si>
+  <si>
+    <t>INTERIM ANALYSIS</t>
+  </si>
+  <si>
+    <t>PHASE I TRIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALUES: ACTSUB, ADAPT, ADDON, AGEMAX, AGEMIN, BLNDSTAT, CITNSTDY, CMSPSTAT, COMPTRT, CRMDUR, CURTRT, DCUTDESC, DMCIND, DOSE, DOSFRM, DOSFRQ, DOSRGM, DOSU, EGBLIND, EGCTMON, EGLEADPR, EGLEADSM, EGRDMETH, EGREPLBL, EGREPLTR, FCNTRY, HLTSUBJI, INDIC, INTMODEL, INTTYPE, KEYWORD, LENGTH, MNFCNTRY, NARMS, NCOHORT, NUMSEUST, OBJEXP, OBJPRIM, OBJSEC, OBSTPOPD, OUTMSEXP, OUTMSPRI, OUTMSSEC, PCLAS, PLANSUB, PLNTRDUR, PTRTDUR, PUBMEDID, RANDOM, RANDQT, REGID, ROUTE, SDTIGVER, SDTMVER, SENDTC, SEXPOP,  SPONSOR,  SSTDTC, STOPRULE, STYPE, TBLIND, TCNTRL, THERAREA, TINDTP, TITLE, TPHASE, TRGFUDUR, TRT, TTYPE                                                                                                                 </t>
+  </si>
+  <si>
+    <t>The study is not conducted in accordance with the procedures defined in the approved protocol</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECG Continuous Monitoring </t>
+  </si>
+  <si>
+    <t>SDTM IG Version</t>
+  </si>
+  <si>
+    <t>To evaluate the safety and tolerability and the impact of food intake on pharmacokinetics of JP-2266 after single oral administration at 5 different doses in fast or fed conditions in healthy male Caucasian subjects.</t>
+  </si>
+  <si>
+    <t>To evaluate the safety, tolerability and the impact of food on pharmacodynamicsof JP-2266 after single oral administration in fast or fed conditions in healthy male Caucasian subjects.</t>
+  </si>
+  <si>
+    <t>Healthy male Caucasian volunteers aged between 18 and 50 years.</t>
+  </si>
+  <si>
+    <t>The correlation between pharmacokinetic parameters, including metabolite-to-parent drug exposure ratios, and pharmacokinetics/pharmacodynamics.</t>
+  </si>
+  <si>
+    <t>Blood : Hematology, Coagulation, Biochemistry
 Urine : urinalysis, urine electrolyte test</t>
   </si>
   <si>
-    <t>Cmin</t>
-  </si>
-  <si>
-    <t>AUC0-24h,</t>
-  </si>
-  <si>
-    <t>AUClast</t>
-  </si>
-  <si>
-    <t>AUCinf</t>
-  </si>
-  <si>
-    <t>kel</t>
-  </si>
-  <si>
-    <t>Vd/F</t>
-  </si>
-  <si>
-    <t>CLr,</t>
-  </si>
-  <si>
-    <t>Ae0-24h</t>
-  </si>
-  <si>
-    <t>Aelast</t>
-  </si>
-  <si>
-    <t>fe%</t>
-  </si>
-  <si>
-    <t>OUTMSSEC</t>
-  </si>
-  <si>
-    <t>Secondary Outcome Measure</t>
-  </si>
-  <si>
-    <t>Emax</t>
-  </si>
-  <si>
-    <t>Δemax</t>
-  </si>
-  <si>
-    <t>AUEC</t>
-  </si>
-  <si>
-    <t>Ae</t>
-  </si>
-  <si>
-    <t>DOUBLE BLIND</t>
-  </si>
-  <si>
-    <t>JEIL Pharmaceutical Co., Ltd. 343, Sapyeong-daero, Seocho-gu, Seoul, Republic of Korea</t>
-  </si>
-  <si>
-    <t>If a serious adverse reaction (SAR) or a severe non‐serious adverse reactions (AR)possibly related to  JP-2266 happens.</t>
-  </si>
-  <si>
-    <t>A Dose-randomized, Double-blind, Placebo-controlled, Single- and Multiple-dose, Dose-escalation, Phase I Clinical Trial to Investigate the Safety, Tolerability, and Pharmacokinetic and Pharmacodynamic Characteristics of JP-2266 after Oral Administration in Healthy Male Caucasian Subjects</t>
-  </si>
-  <si>
-    <t>UNK</t>
-  </si>
-  <si>
-    <t>Investigational Therapy or Treatment</t>
-  </si>
-  <si>
-    <t>PHARMACODYNAMIC</t>
-  </si>
-  <si>
-    <t>C49662</t>
-  </si>
-  <si>
-    <t>PCLAS</t>
-  </si>
-  <si>
-    <t>Pharmacologic Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALUES: ACTSUB, ADAPT, ADDON, AGEMAX, AGEMIN, BLNDSTAT, CITNSTDY, CMSPSTAT, COMPTRT, CRMDUR, CURTRT, DCUTDESC, DMCIND, DOSE, DOSFRM, DOSFRQ, DOSRGM, DOSU, EGBLIND, EGCTMON, EGLEADPR, EGLEADSM, EGRDMETH, EGREPLBL, EGREPLTR, FCNTRY, HLTSUBJI, INDIC, INTMODEL, INTTYPE, KEYWORD, LENGTH, MNFCNTRY, NARMS, NCOHORT, NUMSEUST, OBJEXP, OBJPRIM, OBJSEC, OBSTPOPD, OUTMSEXP, OUTMSPRI, OUTMSSEC, PCLAS, PLANSUB, PLNTRDUR, PTRTDUR, PUBMEDID, RANDOM, RANDQT, ROUTE, SDTIGVER, SDTMVER, SENDTC, SEXPOP,  SPONSOR,  SSTDTC, STOPRULE, STYPE, TBLIND, TCNTRL, THERAREA, TINDTP, TITLE, TPHASE, TRGFUDUR, TRT, TTYPE                                                                                                                 </t>
-  </si>
-  <si>
-    <t>Korea</t>
-  </si>
-  <si>
-    <t>Value : OP109219-JP-2266-101-FIH_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OP109219-JP-2266-101-FIH_A</t>
+    <t>_x001A_emax</t>
+  </si>
+  <si>
+    <t>AUC0-24h</t>
+  </si>
+  <si>
+    <t>CLr</t>
+  </si>
+  <si>
+    <t>Adverse Events</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1102,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1198,9 +1208,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1513,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1590,7 +1597,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>19</v>
@@ -1684,7 +1691,7 @@
         <v>18</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="5"/>
@@ -1893,8 +1900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6214027E-5493-4CC5-9C72-14F4BE08A4D8}">
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="B62" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1904,7 +1911,7 @@
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="36.6640625" customWidth="1"/>
     <col min="6" max="6" width="48.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
     <col min="8" max="8" width="11.5546875" customWidth="1"/>
     <col min="9" max="9" width="12.109375" customWidth="1"/>
     <col min="10" max="10" width="11.88671875" customWidth="1"/>
@@ -1944,7 +1951,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>12</v>
@@ -1956,7 +1963,7 @@
         <v>58</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F2" s="25">
         <v>80</v>
@@ -1967,12 +1974,12 @@
         <v>59</v>
       </c>
       <c r="J2" s="33">
-        <v>40704</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B3" s="31" t="s">
         <v>12</v>
@@ -1997,12 +2004,12 @@
         <v>59</v>
       </c>
       <c r="J3" s="33">
-        <v>40704</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>12</v>
@@ -2014,7 +2021,7 @@
         <v>64</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F4" s="25" t="s">
         <v>62</v>
@@ -2027,12 +2034,12 @@
         <v>59</v>
       </c>
       <c r="J4" s="33">
-        <v>40704</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B5" s="31" t="s">
         <v>12</v>
@@ -2044,7 +2051,7 @@
         <v>67</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>68</v>
@@ -2058,7 +2065,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B6" s="31" t="s">
         <v>12</v>
@@ -2070,7 +2077,7 @@
         <v>70</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>71</v>
@@ -2084,7 +2091,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B7" s="31" t="s">
         <v>12</v>
@@ -2096,7 +2103,7 @@
         <v>72</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>65</v>
@@ -2109,12 +2116,12 @@
         <v>59</v>
       </c>
       <c r="J7" s="33">
-        <v>40704</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B8" s="31" t="s">
         <v>12</v>
@@ -2139,12 +2146,12 @@
         <v>59</v>
       </c>
       <c r="J8" s="33">
-        <v>40704</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>12</v>
@@ -2156,7 +2163,7 @@
         <v>75</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>65</v>
@@ -2169,12 +2176,12 @@
         <v>59</v>
       </c>
       <c r="J9" s="33">
-        <v>40704</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>12</v>
@@ -2186,7 +2193,7 @@
         <v>76</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F10" s="25" t="s">
         <v>77</v>
@@ -2199,12 +2206,12 @@
         <v>59</v>
       </c>
       <c r="J10" s="33">
-        <v>40704</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B11" s="31" t="s">
         <v>12</v>
@@ -2216,10 +2223,10 @@
         <v>79</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
@@ -2230,7 +2237,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B12" s="31" t="s">
         <v>12</v>
@@ -2242,10 +2249,10 @@
         <v>80</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G12" s="31"/>
       <c r="H12" s="25"/>
@@ -2256,7 +2263,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B13" s="31" t="s">
         <v>12</v>
@@ -2271,7 +2278,7 @@
         <v>83</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
@@ -2280,7 +2287,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B14" s="31" t="s">
         <v>12</v>
@@ -2292,7 +2299,7 @@
         <v>84</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>65</v>
@@ -2305,12 +2312,12 @@
         <v>59</v>
       </c>
       <c r="J14" s="33">
-        <v>40704</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B15" s="31" t="s">
         <v>12</v>
@@ -2325,7 +2332,7 @@
         <v>86</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
@@ -2334,7 +2341,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B16" s="31" t="s">
         <v>12</v>
@@ -2349,22 +2356,22 @@
         <v>88</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="25" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="I16" s="31" t="s">
         <v>59</v>
       </c>
       <c r="J16" s="33">
-        <v>40704</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B17" s="31" t="s">
         <v>12</v>
@@ -2379,22 +2386,22 @@
         <v>90</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="25" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I17" s="31" t="s">
         <v>59</v>
       </c>
       <c r="J17" s="33">
-        <v>40704</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B18" s="31" t="s">
         <v>12</v>
@@ -2419,12 +2426,12 @@
         <v>59</v>
       </c>
       <c r="J18" s="33">
-        <v>40704</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B19" s="31" t="s">
         <v>12</v>
@@ -2449,12 +2456,12 @@
         <v>59</v>
       </c>
       <c r="J19" s="33">
-        <v>40704</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B20" s="31" t="s">
         <v>12</v>
@@ -2479,12 +2486,12 @@
         <v>59</v>
       </c>
       <c r="J20" s="33">
-        <v>40704</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B21" s="31" t="s">
         <v>12</v>
@@ -2496,7 +2503,7 @@
         <v>99</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="F21" s="25" t="s">
         <v>62</v>
@@ -2509,12 +2516,12 @@
         <v>59</v>
       </c>
       <c r="J21" s="33">
-        <v>40704</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B22" s="31" t="s">
         <v>12</v>
@@ -2526,7 +2533,7 @@
         <v>100</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F22" s="25">
         <v>12</v>
@@ -2538,7 +2545,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B23" s="31" t="s">
         <v>12</v>
@@ -2563,12 +2570,12 @@
         <v>59</v>
       </c>
       <c r="J23" s="33">
-        <v>40704</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B24" s="31" t="s">
         <v>12</v>
@@ -2592,7 +2599,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B25" s="31" t="s">
         <v>12</v>
@@ -2604,7 +2611,7 @@
         <v>106</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F25" s="25" t="s">
         <v>65</v>
@@ -2617,12 +2624,12 @@
         <v>59</v>
       </c>
       <c r="J25" s="33">
-        <v>40704</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B26" s="31" t="s">
         <v>12</v>
@@ -2647,12 +2654,12 @@
         <v>59</v>
       </c>
       <c r="J26" s="33">
-        <v>40704</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B27" s="31" t="s">
         <v>12</v>
@@ -2664,7 +2671,7 @@
         <v>109</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F27" s="25" t="s">
         <v>110</v>
@@ -2676,7 +2683,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B28" s="31" t="s">
         <v>12</v>
@@ -2701,12 +2708,12 @@
         <v>59</v>
       </c>
       <c r="J28" s="33">
-        <v>40704</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B29" s="31" t="s">
         <v>12</v>
@@ -2718,13 +2725,15 @@
         <v>113</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
+      <c r="H29" s="25" t="s">
+        <v>274</v>
+      </c>
       <c r="I29" s="31" t="s">
         <v>114</v>
       </c>
@@ -2732,7 +2741,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B30" s="31" t="s">
         <v>12</v>
@@ -2747,22 +2756,22 @@
         <v>116</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="G30" s="25"/>
       <c r="H30" s="25" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="I30" s="31" t="s">
         <v>59</v>
       </c>
       <c r="J30" s="33">
-        <v>40704</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B31" s="31" t="s">
         <v>12</v>
@@ -2787,12 +2796,12 @@
         <v>59</v>
       </c>
       <c r="J31" s="33">
-        <v>40704</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B32" s="31" t="s">
         <v>12</v>
@@ -2807,7 +2816,7 @@
         <v>122</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G32" s="31"/>
       <c r="H32" s="25"/>
@@ -2816,7 +2825,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B33" s="31" t="s">
         <v>12</v>
@@ -2831,14 +2840,18 @@
         <v>124</v>
       </c>
       <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
+      <c r="G33" s="25" t="s">
+        <v>273</v>
+      </c>
       <c r="H33" s="25"/>
-      <c r="I33" s="31"/>
+      <c r="I33" s="31" t="s">
+        <v>195</v>
+      </c>
       <c r="J33" s="31"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B34" s="31" t="s">
         <v>12</v>
@@ -2850,14 +2863,14 @@
         <v>125</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G34" s="25"/>
       <c r="H34" s="25" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="I34" s="31" t="s">
         <v>126</v>
@@ -2866,7 +2879,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B35" s="31" t="s">
         <v>12</v>
@@ -2890,7 +2903,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B36" s="31" t="s">
         <v>12</v>
@@ -2902,7 +2915,7 @@
         <v>129</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F36" s="25">
         <v>5</v>
@@ -2914,7 +2927,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B37" s="31" t="s">
         <v>12</v>
@@ -2926,7 +2939,7 @@
         <v>130</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F37" s="25">
         <v>1</v>
@@ -2938,7 +2951,7 @@
     </row>
     <row r="38" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B38" s="31" t="s">
         <v>12</v>
@@ -2947,13 +2960,13 @@
         <v>37</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
@@ -2962,7 +2975,7 @@
     </row>
     <row r="39" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B39" s="31" t="s">
         <v>12</v>
@@ -2971,22 +2984,22 @@
         <v>38</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G39" s="25"/>
       <c r="H39" s="25"/>
       <c r="I39" s="31"/>
       <c r="J39" s="31"/>
     </row>
-    <row r="40" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B40" s="31" t="s">
         <v>12</v>
@@ -3001,16 +3014,16 @@
         <v>132</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="G40" s="25"/>
       <c r="H40" s="25"/>
       <c r="I40" s="31"/>
       <c r="J40" s="31"/>
     </row>
-    <row r="41" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B41" s="31" t="s">
         <v>12</v>
@@ -3025,16 +3038,16 @@
         <v>134</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G41" s="25"/>
       <c r="H41" s="25"/>
       <c r="I41" s="31"/>
       <c r="J41" s="31"/>
     </row>
-    <row r="42" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B42" s="31" t="s">
         <v>12</v>
@@ -3049,7 +3062,7 @@
         <v>134</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
@@ -3058,7 +3071,7 @@
     </row>
     <row r="43" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B43" s="31" t="s">
         <v>12</v>
@@ -3067,22 +3080,22 @@
         <v>42</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
       <c r="I43" s="31"/>
       <c r="J43" s="31"/>
     </row>
-    <row r="44" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B44" s="31" t="s">
         <v>12</v>
@@ -3094,19 +3107,19 @@
         <v>135</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
       <c r="I44" s="31"/>
       <c r="J44" s="31"/>
     </row>
-    <row r="45" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B45" s="31" t="s">
         <v>12</v>
@@ -3115,22 +3128,22 @@
         <v>44</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
       <c r="I45" s="31"/>
       <c r="J45" s="31"/>
     </row>
-    <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B46" s="31" t="s">
         <v>12</v>
@@ -3142,10 +3155,10 @@
         <v>136</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="G46" s="25"/>
       <c r="H46" s="25"/>
@@ -3154,7 +3167,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B47" s="31" t="s">
         <v>12</v>
@@ -3166,10 +3179,10 @@
         <v>136</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
@@ -3178,7 +3191,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B48" s="31" t="s">
         <v>12</v>
@@ -3190,19 +3203,19 @@
         <v>136</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>261</v>
+        <v>137</v>
       </c>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
       <c r="I48" s="31"/>
       <c r="J48" s="31"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B49" s="31" t="s">
         <v>12</v>
@@ -3214,19 +3227,19 @@
         <v>136</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>137</v>
+        <v>293</v>
       </c>
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
       <c r="I49" s="31"/>
       <c r="J49" s="31"/>
     </row>
-    <row r="50" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B50" s="31" t="s">
         <v>12</v>
@@ -3238,10 +3251,10 @@
         <v>136</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>263</v>
+        <v>138</v>
       </c>
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
@@ -3250,7 +3263,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B51" s="31" t="s">
         <v>12</v>
@@ -3262,10 +3275,10 @@
         <v>136</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="F51" s="25" t="s">
-        <v>138</v>
+        <v>218</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>139</v>
       </c>
       <c r="G51" s="25"/>
       <c r="H51" s="25"/>
@@ -3274,7 +3287,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B52" s="31" t="s">
         <v>12</v>
@@ -3286,10 +3299,10 @@
         <v>136</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F52" s="31" t="s">
-        <v>139</v>
+        <v>249</v>
       </c>
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
@@ -3298,7 +3311,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B53" s="31" t="s">
         <v>12</v>
@@ -3310,10 +3323,10 @@
         <v>136</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F53" s="31" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
@@ -3322,7 +3335,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B54" s="31" t="s">
         <v>12</v>
@@ -3334,10 +3347,10 @@
         <v>136</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F54" s="31" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="G54" s="25"/>
       <c r="H54" s="25"/>
@@ -3346,7 +3359,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B55" s="31" t="s">
         <v>12</v>
@@ -3358,10 +3371,10 @@
         <v>136</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F55" s="31" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
@@ -3370,7 +3383,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B56" s="31" t="s">
         <v>12</v>
@@ -3382,10 +3395,10 @@
         <v>136</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F56" s="31" t="s">
-        <v>267</v>
+        <v>142</v>
       </c>
       <c r="G56" s="25"/>
       <c r="H56" s="25"/>
@@ -3394,7 +3407,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B57" s="31" t="s">
         <v>12</v>
@@ -3406,10 +3419,10 @@
         <v>136</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F57" s="31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G57" s="25"/>
       <c r="H57" s="25"/>
@@ -3418,7 +3431,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B58" s="31" t="s">
         <v>12</v>
@@ -3430,10 +3443,10 @@
         <v>136</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F58" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G58" s="25"/>
       <c r="H58" s="25"/>
@@ -3442,7 +3455,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B59" s="31" t="s">
         <v>12</v>
@@ -3454,10 +3467,10 @@
         <v>136</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F59" s="31" t="s">
-        <v>141</v>
+        <v>253</v>
       </c>
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
@@ -3466,7 +3479,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B60" s="31" t="s">
         <v>12</v>
@@ -3478,10 +3491,10 @@
         <v>136</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F60" s="31" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
@@ -3490,7 +3503,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B61" s="31" t="s">
         <v>12</v>
@@ -3502,10 +3515,10 @@
         <v>136</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F61" s="31" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
@@ -3514,7 +3527,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B62" s="31" t="s">
         <v>12</v>
@@ -3526,10 +3539,10 @@
         <v>136</v>
       </c>
       <c r="E62" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F62" s="31" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
@@ -3538,7 +3551,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B63" s="31" t="s">
         <v>12</v>
@@ -3550,10 +3563,10 @@
         <v>136</v>
       </c>
       <c r="E63" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F63" s="31" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
@@ -3562,7 +3575,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B64" s="31" t="s">
         <v>12</v>
@@ -3574,10 +3587,10 @@
         <v>136</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F64" s="31" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="G64" s="25"/>
       <c r="H64" s="25"/>
@@ -3586,7 +3599,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B65" s="31" t="s">
         <v>12</v>
@@ -3595,13 +3608,13 @@
         <v>64</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>136</v>
+        <v>257</v>
       </c>
       <c r="E65" s="25" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="F65" s="31" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="G65" s="25"/>
       <c r="H65" s="25"/>
@@ -3610,7 +3623,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B66" s="31" t="s">
         <v>12</v>
@@ -3619,13 +3632,13 @@
         <v>65</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="E66" s="25" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F66" s="31" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="G66" s="25"/>
       <c r="H66" s="25"/>
@@ -3634,7 +3647,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B67" s="31" t="s">
         <v>12</v>
@@ -3643,13 +3656,13 @@
         <v>66</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="E67" s="25" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F67" s="31" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="G67" s="25"/>
       <c r="H67" s="25"/>
@@ -3658,7 +3671,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B68" s="31" t="s">
         <v>12</v>
@@ -3667,13 +3680,13 @@
         <v>67</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F68" s="31" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
@@ -3682,7 +3695,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B69" s="31" t="s">
         <v>12</v>
@@ -3691,22 +3704,24 @@
         <v>68</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E69" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="F69" s="31" t="s">
-        <v>279</v>
-      </c>
-      <c r="G69" s="25"/>
+        <v>270</v>
+      </c>
+      <c r="F69" s="31"/>
+      <c r="G69" s="25" t="s">
+        <v>273</v>
+      </c>
       <c r="H69" s="25"/>
-      <c r="I69" s="31"/>
+      <c r="I69" s="31" t="s">
+        <v>195</v>
+      </c>
       <c r="J69" s="31"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B70" s="31" t="s">
         <v>12</v>
@@ -3715,12 +3730,14 @@
         <v>69</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>288</v>
+        <v>143</v>
       </c>
       <c r="E70" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="F70" s="31"/>
+        <v>219</v>
+      </c>
+      <c r="F70" s="25">
+        <v>80</v>
+      </c>
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
       <c r="I70" s="31"/>
@@ -3728,7 +3745,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B71" s="31" t="s">
         <v>12</v>
@@ -3737,22 +3754,24 @@
         <v>70</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E71" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="F71" s="25">
-        <v>80</v>
+        <v>145</v>
+      </c>
+      <c r="F71" s="25" t="s">
+        <v>234</v>
       </c>
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
-      <c r="I71" s="31"/>
+      <c r="I71" s="31" t="s">
+        <v>69</v>
+      </c>
       <c r="J71" s="31"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B72" s="31" t="s">
         <v>12</v>
@@ -3761,13 +3780,13 @@
         <v>71</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E72" s="25" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="F72" s="25" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
@@ -3778,7 +3797,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B73" s="31" t="s">
         <v>12</v>
@@ -3787,24 +3806,24 @@
         <v>72</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E73" s="25" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F73" s="25" t="s">
-        <v>239</v>
+        <v>62</v>
       </c>
       <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="31" t="s">
-        <v>69</v>
-      </c>
+      <c r="H73" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I73" s="31"/>
       <c r="J73" s="31"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B74" s="31" t="s">
         <v>12</v>
@@ -3812,55 +3831,53 @@
       <c r="C74" s="32">
         <v>73</v>
       </c>
-      <c r="D74" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="E74" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="F74" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I74" s="31"/>
-      <c r="J74" s="31"/>
-    </row>
-    <row r="75" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D74" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E74" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="F74" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="I74" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="J74" s="33">
+        <v>43644</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="31" t="s">
-        <v>293</v>
-      </c>
-      <c r="B75" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="B75" s="31" t="s">
         <v>12</v>
       </c>
       <c r="C75" s="32">
         <v>74</v>
       </c>
-      <c r="D75" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="E75" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="F75" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="I75" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="J75" s="37">
-        <v>40704</v>
-      </c>
+      <c r="D75" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E75" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="F75" s="28">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="G75" s="28"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="31"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B76" s="31" t="s">
         <v>12</v>
@@ -3869,22 +3886,24 @@
         <v>75</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>151</v>
+        <v>277</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="F76" s="28">
-        <v>0.25138888888888888</v>
+        <v>278</v>
+      </c>
+      <c r="F76" s="25" t="s">
+        <v>279</v>
       </c>
       <c r="G76" s="28"/>
       <c r="H76" s="25"/>
-      <c r="I76" s="31"/>
+      <c r="I76" s="31" t="s">
+        <v>280</v>
+      </c>
       <c r="J76" s="31"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B77" s="31" t="s">
         <v>12</v>
@@ -3909,12 +3928,12 @@
         <v>59</v>
       </c>
       <c r="J77" s="33">
-        <v>40704</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B78" s="31" t="s">
         <v>12</v>
@@ -3939,12 +3958,12 @@
         <v>59</v>
       </c>
       <c r="J78" s="33">
-        <v>40704</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>43644</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B79" s="31" t="s">
         <v>12</v>
@@ -3956,7 +3975,7 @@
         <v>159</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>225</v>
+        <v>288</v>
       </c>
       <c r="F79" s="25">
         <v>3.2</v>
@@ -3967,12 +3986,12 @@
         <v>59</v>
       </c>
       <c r="J79" s="33">
-        <v>40704</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B80" s="31" t="s">
         <v>12</v>
@@ -3995,12 +4014,12 @@
         <v>59</v>
       </c>
       <c r="J80" s="33">
-        <v>40704</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B81" s="31" t="s">
         <v>12</v>
@@ -4014,17 +4033,19 @@
       <c r="E81" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="25" t="s">
+        <v>273</v>
+      </c>
       <c r="H81" s="29"/>
       <c r="I81" s="31" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="J81" s="31"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B82" s="31" t="s">
         <v>12</v>
@@ -4049,12 +4070,12 @@
         <v>59</v>
       </c>
       <c r="J82" s="33">
-        <v>40704</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B83" s="31" t="s">
         <v>12</v>
@@ -4069,7 +4090,7 @@
         <v>169</v>
       </c>
       <c r="F83" s="25" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
@@ -4080,7 +4101,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B84" s="31" t="s">
         <v>12</v>
@@ -4092,7 +4113,7 @@
         <v>171</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F84" s="25" t="s">
         <v>65</v>
@@ -4105,12 +4126,12 @@
         <v>59</v>
       </c>
       <c r="J84" s="33">
-        <v>40704</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B85" s="31" t="s">
         <v>12</v>
@@ -4124,7 +4145,9 @@
       <c r="E85" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="F85" s="25"/>
+      <c r="F85" s="29">
+        <v>44159</v>
+      </c>
       <c r="G85" s="25"/>
       <c r="H85" s="29"/>
       <c r="I85" s="31" t="s">
@@ -4134,7 +4157,7 @@
     </row>
     <row r="86" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B86" s="31" t="s">
         <v>12</v>
@@ -4149,7 +4172,7 @@
         <v>175</v>
       </c>
       <c r="F86" s="25" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G86" s="25"/>
       <c r="H86" s="25"/>
@@ -4158,7 +4181,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B87" s="31" t="s">
         <v>12</v>
@@ -4183,12 +4206,12 @@
         <v>59</v>
       </c>
       <c r="J87" s="33">
-        <v>40704</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B88" s="31" t="s">
         <v>12</v>
@@ -4203,7 +4226,7 @@
         <v>181</v>
       </c>
       <c r="F88" s="25" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="G88" s="25"/>
       <c r="H88" s="25" t="s">
@@ -4213,12 +4236,12 @@
         <v>59</v>
       </c>
       <c r="J88" s="33">
-        <v>40704</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B89" s="31" t="s">
         <v>12</v>
@@ -4243,12 +4266,12 @@
         <v>59</v>
       </c>
       <c r="J89" s="33">
-        <v>40704</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B90" s="31" t="s">
         <v>12</v>
@@ -4271,12 +4294,12 @@
         <v>59</v>
       </c>
       <c r="J90" s="33">
-        <v>40704</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B91" s="31" t="s">
         <v>12</v>
@@ -4290,23 +4313,19 @@
       <c r="E91" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="F91" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="G91" s="25"/>
-      <c r="H91" s="25" t="s">
-        <v>191</v>
-      </c>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="H91" s="25"/>
       <c r="I91" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="J91" s="33">
-        <v>40704</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="J91" s="33"/>
     </row>
     <row r="92" spans="1:10" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B92" s="31" t="s">
         <v>12</v>
@@ -4315,13 +4334,13 @@
         <v>91</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F92" s="25" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="G92" s="25"/>
       <c r="H92" s="25"/>
@@ -4330,7 +4349,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B93" s="31" t="s">
         <v>12</v>
@@ -4339,26 +4358,28 @@
         <v>92</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F93" s="25" t="s">
-        <v>196</v>
+        <v>282</v>
       </c>
       <c r="G93" s="25"/>
       <c r="H93" s="25" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I93" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="J93" s="31"/>
+        <v>59</v>
+      </c>
+      <c r="J93" s="33">
+        <v>43644</v>
+      </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B94" s="31" t="s">
         <v>12</v>
@@ -4367,24 +4388,24 @@
         <v>93</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F94" s="25"/>
       <c r="G94" s="25" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="H94" s="25"/>
       <c r="I94" s="31" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="J94" s="31"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B95" s="31" t="s">
         <v>12</v>
@@ -4393,13 +4414,13 @@
         <v>94</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G95" s="25"/>
       <c r="H95" s="25"/>
@@ -4410,7 +4431,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B96" s="31" t="s">
         <v>12</v>
@@ -4419,28 +4440,28 @@
         <v>95</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F96" s="25" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G96" s="25"/>
       <c r="H96" s="25" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I96" s="31" t="s">
         <v>59</v>
       </c>
       <c r="J96" s="33">
-        <v>40704</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B97" s="31" t="s">
         <v>12</v>
@@ -4449,28 +4470,28 @@
         <v>96</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E97" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="F97" s="25" t="s">
         <v>202</v>
-      </c>
-      <c r="F97" s="25" t="s">
-        <v>205</v>
       </c>
       <c r="G97" s="25"/>
       <c r="H97" s="25" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I97" s="31" t="s">
         <v>59</v>
       </c>
       <c r="J97" s="33">
-        <v>40704</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B98" s="31" t="s">
         <v>12</v>
@@ -4479,28 +4500,28 @@
         <v>97</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F98" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G98" s="25"/>
       <c r="H98" s="25" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I98" s="31" t="s">
         <v>59</v>
       </c>
       <c r="J98" s="33">
-        <v>40704</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="31" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B99" s="31" t="s">
         <v>12</v>
@@ -4509,23 +4530,23 @@
         <v>98</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F99" s="31" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="G99" s="31"/>
       <c r="H99" s="31" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="I99" s="31" t="s">
         <v>59</v>
       </c>
       <c r="J99" s="33">
-        <v>40705</v>
+        <v>43644</v>
       </c>
     </row>
   </sheetData>
